--- a/my_rank/工业互联网.xlsx
+++ b/my_rank/工业互联网.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8459</v>
+        <v>16336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5396649172385951</v>
+        <v>0.5020194174757282</v>
       </c>
       <c r="E2" t="n">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10763</v>
+        <v>20441</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7722042793702059</v>
+        <v>0.6614368932038835</v>
       </c>
       <c r="E3" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11536</v>
+        <v>21126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8502220427937021</v>
+        <v>0.6880388349514563</v>
       </c>
       <c r="E4" t="n">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12279</v>
+        <v>25253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9252119499394429</v>
+        <v>0.8483106796116505</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10389</v>
+        <v>19164</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7344570044408558</v>
+        <v>0.6118446601941747</v>
       </c>
       <c r="E6" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11644</v>
+        <v>24230</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8611223253936213</v>
+        <v>0.8085825242718446</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8222</v>
+        <v>15330</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5157448526443278</v>
+        <v>0.4629514563106796</v>
       </c>
       <c r="E8" t="n">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8710</v>
+        <v>16073</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5649979814291481</v>
+        <v>0.4918058252427184</v>
       </c>
       <c r="E9" t="n">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11161</v>
+        <v>22981</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8123738393217602</v>
+        <v>0.7600776699029126</v>
       </c>
       <c r="E10" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10694</v>
+        <v>17360</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7652402099313685</v>
+        <v>0.5417864077669903</v>
       </c>
       <c r="E11" t="n">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11179</v>
+        <v>18615</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8141905530884134</v>
+        <v>0.5905242718446602</v>
       </c>
       <c r="E12" t="n">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8719</v>
+        <v>12005</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5659063383124747</v>
+        <v>0.3338252427184466</v>
       </c>
       <c r="E13" t="n">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8820</v>
+        <v>14172</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5761001211142511</v>
+        <v>0.4179805825242718</v>
       </c>
       <c r="E14" t="n">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11701</v>
+        <v>23887</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8668752523213564</v>
+        <v>0.7952621359223301</v>
       </c>
       <c r="E15" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9166</v>
+        <v>15448</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6110213968510295</v>
+        <v>0.4675339805825243</v>
       </c>
       <c r="E16" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10671</v>
+        <v>19810</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7629188534517561</v>
+        <v>0.6369320388349514</v>
       </c>
       <c r="E17" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6288</v>
+        <v>10417</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3205490512716996</v>
+        <v>0.2721553398058252</v>
       </c>
       <c r="E18" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12470</v>
+        <v>27160</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9444893015744853</v>
+        <v>0.922368932038835</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10332</v>
+        <v>20168</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7287040775131207</v>
+        <v>0.6508349514563107</v>
       </c>
       <c r="E20" t="n">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9565</v>
+        <v>16268</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6512918853451756</v>
+        <v>0.499378640776699</v>
       </c>
       <c r="E21" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11180</v>
+        <v>21325</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8142914816310053</v>
+        <v>0.6957669902912621</v>
       </c>
       <c r="E22" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12106</v>
+        <v>22479</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9077513120710536</v>
+        <v>0.7405825242718447</v>
       </c>
       <c r="E23" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12216</v>
+        <v>23598</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9188534517561566</v>
+        <v>0.7840388349514563</v>
       </c>
       <c r="E24" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12382</v>
+        <v>24922</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9356075898264029</v>
+        <v>0.8354563106796117</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8086</v>
+        <v>12302</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5020185708518369</v>
+        <v>0.3453592233009709</v>
       </c>
       <c r="E26" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11275</v>
+        <v>18931</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8238796931772305</v>
+        <v>0.6027961165048543</v>
       </c>
       <c r="E27" t="n">
-        <v>103</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28">
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7558</v>
+        <v>12755</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4487283003633428</v>
+        <v>0.3629514563106796</v>
       </c>
       <c r="E28" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11622</v>
+        <v>22873</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8589018974566007</v>
+        <v>0.755883495145631</v>
       </c>
       <c r="E29" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7112</v>
+        <v>10624</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4037141703673799</v>
+        <v>0.2801941747572815</v>
       </c>
       <c r="E30" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12963</v>
+        <v>27895</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9942470730722648</v>
+        <v>0.9509126213592233</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9543</v>
+        <v>16690</v>
       </c>
       <c r="D32" t="n">
-        <v>0.649071457408155</v>
+        <v>0.5157669902912622</v>
       </c>
       <c r="E32" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>12741</v>
+        <v>27295</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9718409366168752</v>
+        <v>0.9276116504854369</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12340</v>
+        <v>24381</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9313685910375454</v>
+        <v>0.8144466019417476</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11001</v>
+        <v>21372</v>
       </c>
       <c r="D35" t="n">
-        <v>0.796225272507065</v>
+        <v>0.6975922330097087</v>
       </c>
       <c r="E35" t="n">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8445</v>
+        <v>14036</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5382519176423093</v>
+        <v>0.4126990291262136</v>
       </c>
       <c r="E36" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>11619</v>
+        <v>23344</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8585991118288252</v>
+        <v>0.7741747572815534</v>
       </c>
       <c r="E37" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8930</v>
+        <v>16069</v>
       </c>
       <c r="D38" t="n">
-        <v>0.587202260799354</v>
+        <v>0.4916504854368932</v>
       </c>
       <c r="E38" t="n">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39">
@@ -1169,13 +1169,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>12743</v>
+        <v>25389</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9720427937020589</v>
+        <v>0.8535922330097088</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
@@ -1188,13 +1188,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6381</v>
+        <v>9899</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3299354057327412</v>
+        <v>0.2520388349514563</v>
       </c>
       <c r="E40" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9636</v>
+        <v>18073</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6584578118691966</v>
+        <v>0.5694757281553398</v>
       </c>
       <c r="E41" t="n">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>12465</v>
+        <v>26251</v>
       </c>
       <c r="D42" t="n">
-        <v>0.943984658861526</v>
+        <v>0.8870679611650485</v>
       </c>
       <c r="E42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>11364</v>
+        <v>22257</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8328623334679047</v>
+        <v>0.7319611650485437</v>
       </c>
       <c r="E43" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44">
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9837</v>
+        <v>18898</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6787444489301574</v>
+        <v>0.6015145631067961</v>
       </c>
       <c r="E44" t="n">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8309</v>
+        <v>14309</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5245256358498184</v>
+        <v>0.4233009708737864</v>
       </c>
       <c r="E45" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>9134</v>
+        <v>14364</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6077916834880904</v>
+        <v>0.4254368932038835</v>
       </c>
       <c r="E46" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47">
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>12429</v>
+        <v>25321</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9403512313282196</v>
+        <v>0.8509514563106796</v>
       </c>
       <c r="E47" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>11774</v>
+        <v>21605</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8742430359305612</v>
+        <v>0.7066407766990291</v>
       </c>
       <c r="E48" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11354</v>
+        <v>20049</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8318530480419862</v>
+        <v>0.6462135922330097</v>
       </c>
       <c r="E49" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12016</v>
+        <v>23146</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8986677432377876</v>
+        <v>0.7664854368932039</v>
       </c>
       <c r="E50" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10936</v>
+        <v>20554</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7896649172385951</v>
+        <v>0.6658252427184466</v>
       </c>
       <c r="E51" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8259</v>
+        <v>15595</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5194792087202261</v>
+        <v>0.4732427184466019</v>
       </c>
       <c r="E52" t="n">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>11917</v>
+        <v>22499</v>
       </c>
       <c r="D53" t="n">
-        <v>0.888675817521195</v>
+        <v>0.7413592233009709</v>
       </c>
       <c r="E53" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10416</v>
+        <v>18892</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7371820750908357</v>
+        <v>0.6012815533980582</v>
       </c>
       <c r="E54" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55">
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>12212</v>
+        <v>24521</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9184497375857893</v>
+        <v>0.8198834951456311</v>
       </c>
       <c r="E55" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>12475</v>
+        <v>26870</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9449939442874445</v>
+        <v>0.9111067961165048</v>
       </c>
       <c r="E56" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8982</v>
+        <v>17219</v>
       </c>
       <c r="D57" t="n">
-        <v>0.59245054501413</v>
+        <v>0.5363106796116505</v>
       </c>
       <c r="E57" t="n">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58">
@@ -1530,13 +1530,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9199</v>
+        <v>16130</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6143520387565603</v>
+        <v>0.4940194174757281</v>
       </c>
       <c r="E58" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59">
@@ -1549,13 +1549,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8046</v>
+        <v>13218</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4979814291481631</v>
+        <v>0.3809320388349515</v>
       </c>
       <c r="E59" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60">
@@ -1568,13 +1568,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>11981</v>
+        <v>24150</v>
       </c>
       <c r="D60" t="n">
-        <v>0.895135244247073</v>
+        <v>0.8054757281553399</v>
       </c>
       <c r="E60" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10537</v>
+        <v>18814</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7493944287444489</v>
+        <v>0.598252427184466</v>
       </c>
       <c r="E61" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>12388</v>
+        <v>24989</v>
       </c>
       <c r="D62" t="n">
-        <v>0.936213161081954</v>
+        <v>0.8380582524271845</v>
       </c>
       <c r="E62" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12647</v>
+        <v>27749</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9623536536132419</v>
+        <v>0.9452427184466019</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>12134</v>
+        <v>21223</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9105773112636254</v>
+        <v>0.6918058252427185</v>
       </c>
       <c r="E64" t="n">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9692</v>
+        <v>16448</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6641098102543399</v>
+        <v>0.5063689320388349</v>
       </c>
       <c r="E65" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>9984</v>
+        <v>19054</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6935809446911586</v>
+        <v>0.6075728155339806</v>
       </c>
       <c r="E66" t="n">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>10177</v>
+        <v>18226</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7130601534113847</v>
+        <v>0.5754174757281554</v>
       </c>
       <c r="E67" t="n">
         <v>154</v>
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12661</v>
+        <v>27471</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9637666532095277</v>
+        <v>0.9344466019417476</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9699</v>
+        <v>18376</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6648163100524829</v>
+        <v>0.5812427184466019</v>
       </c>
       <c r="E69" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>12068</v>
+        <v>25213</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9039160274525636</v>
+        <v>0.846757281553398</v>
       </c>
       <c r="E70" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>12831</v>
+        <v>25185</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9809245054501413</v>
+        <v>0.8456699029126213</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8965</v>
+        <v>16197</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5907347597900686</v>
+        <v>0.496621359223301</v>
       </c>
       <c r="E72" t="n">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73">
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8589</v>
+        <v>15808</v>
       </c>
       <c r="D73" t="n">
-        <v>0.552785627775535</v>
+        <v>0.4815145631067961</v>
       </c>
       <c r="E73" t="n">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74">
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>11450</v>
+        <v>22462</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8415421881308034</v>
+        <v>0.7399223300970874</v>
       </c>
       <c r="E74" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>10950</v>
+        <v>21018</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7910779168348809</v>
+        <v>0.6838446601941748</v>
       </c>
       <c r="E75" t="n">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10638</v>
+        <v>19300</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7595882115462252</v>
+        <v>0.617126213592233</v>
       </c>
       <c r="E76" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -1891,13 +1891,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>11757</v>
+        <v>23623</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8725272507064998</v>
+        <v>0.7850097087378641</v>
       </c>
       <c r="E77" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78">
@@ -1910,13 +1910,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8943</v>
+        <v>14678</v>
       </c>
       <c r="D78" t="n">
-        <v>0.588514331853048</v>
+        <v>0.437631067961165</v>
       </c>
       <c r="E78" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>11228</v>
+        <v>21662</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8191360516754138</v>
+        <v>0.7088543689320388</v>
       </c>
       <c r="E79" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
@@ -1948,13 +1948,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>10482</v>
+        <v>19962</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7438433589018975</v>
+        <v>0.6428349514563106</v>
       </c>
       <c r="E80" t="n">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81">
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8888</v>
+        <v>14633</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5829632620104965</v>
+        <v>0.4358834951456311</v>
       </c>
       <c r="E81" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82">
@@ -1986,13 +1986,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>11113</v>
+        <v>22855</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8075292692773516</v>
+        <v>0.7551844660194175</v>
       </c>
       <c r="E82" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9016</v>
+        <v>17184</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5958821154622527</v>
+        <v>0.5349514563106796</v>
       </c>
       <c r="E83" t="n">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84">
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>9019</v>
+        <v>17294</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5961849010900283</v>
+        <v>0.5392233009708738</v>
       </c>
       <c r="E84" t="n">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85">
@@ -2043,13 +2043,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>12389</v>
+        <v>25111</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9363140896245459</v>
+        <v>0.8427961165048544</v>
       </c>
       <c r="E85" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11640</v>
+        <v>22943</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8607186112232539</v>
+        <v>0.7586019417475728</v>
       </c>
       <c r="E86" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>11642</v>
+        <v>22212</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8609204683084376</v>
+        <v>0.7302135922330097</v>
       </c>
       <c r="E87" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>10560</v>
+        <v>19332</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7517157852240614</v>
+        <v>0.6183689320388349</v>
       </c>
       <c r="E88" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8950</v>
+        <v>14408</v>
       </c>
       <c r="D89" t="n">
-        <v>0.589220831651191</v>
+        <v>0.4271456310679612</v>
       </c>
       <c r="E89" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>12496</v>
+        <v>27027</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9471134436818732</v>
+        <v>0.9172038834951456</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>10397</v>
+        <v>18965</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7352644327815906</v>
+        <v>0.604116504854369</v>
       </c>
       <c r="E91" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
@@ -2176,13 +2176,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>13020</v>
+        <v>28453</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0.9725825242718447</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>10978</v>
+        <v>23038</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7939039160274526</v>
+        <v>0.7622912621359224</v>
       </c>
       <c r="E93" t="n">
-        <v>117</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7520</v>
+        <v>11474</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4448930157448526</v>
+        <v>0.3132038834951456</v>
       </c>
       <c r="E94" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95">
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6788</v>
+        <v>10804</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3710133225676222</v>
+        <v>0.2871844660194175</v>
       </c>
       <c r="E95" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>10101</v>
+        <v>17418</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7053895841744046</v>
+        <v>0.5440388349514563</v>
       </c>
       <c r="E96" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97">
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9435</v>
+        <v>14968</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6381711748082358</v>
+        <v>0.4488932038834951</v>
       </c>
       <c r="E97" t="n">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4694</v>
+        <v>7567</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1596689543802987</v>
+        <v>0.1614757281553398</v>
       </c>
       <c r="E98" t="n">
         <v>237</v>
@@ -2309,13 +2309,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7514</v>
+        <v>12082</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4442874444893016</v>
+        <v>0.3368155339805825</v>
       </c>
       <c r="E99" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100">
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12052</v>
+        <v>22698</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9023011707710941</v>
+        <v>0.7490873786407767</v>
       </c>
       <c r="E100" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>11932</v>
+        <v>24575</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8901897456600727</v>
+        <v>0.8219805825242719</v>
       </c>
       <c r="E101" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102">
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>9090</v>
+        <v>17170</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6033508276140492</v>
+        <v>0.5344077669902912</v>
       </c>
       <c r="E102" t="n">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103">
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>10811</v>
+        <v>20830</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7770488494146145</v>
+        <v>0.6765436893203883</v>
       </c>
       <c r="E103" t="n">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>10624</v>
+        <v>20005</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7581752119499394</v>
+        <v>0.644504854368932</v>
       </c>
       <c r="E104" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
@@ -2423,13 +2423,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>11333</v>
+        <v>22976</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8297335486475576</v>
+        <v>0.759883495145631</v>
       </c>
       <c r="E105" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106">
@@ -2442,10 +2442,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5597</v>
+        <v>8776</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2508074283407348</v>
+        <v>0.2084271844660194</v>
       </c>
       <c r="E106" t="n">
         <v>234</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>11866</v>
+        <v>24028</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8835284618490109</v>
+        <v>0.8007378640776699</v>
       </c>
       <c r="E107" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108">
@@ -2480,13 +2480,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12392</v>
+        <v>21288</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9366168752523214</v>
+        <v>0.6943300970873787</v>
       </c>
       <c r="E108" t="n">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109">
@@ -2499,13 +2499,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>11780</v>
+        <v>23490</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8748486071861122</v>
+        <v>0.7798446601941748</v>
       </c>
       <c r="E109" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110">
@@ -2518,13 +2518,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>11537</v>
+        <v>23970</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8503229713362939</v>
+        <v>0.7984854368932038</v>
       </c>
       <c r="E110" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111">
@@ -2537,13 +2537,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>10942</v>
+        <v>20808</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7902704884941462</v>
+        <v>0.6756893203883495</v>
       </c>
       <c r="E111" t="n">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
@@ -2556,13 +2556,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>11949</v>
+        <v>25361</v>
       </c>
       <c r="D112" t="n">
-        <v>0.891905530884134</v>
+        <v>0.8525048543689321</v>
       </c>
       <c r="E112" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
@@ -2575,13 +2575,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>12275</v>
+        <v>24816</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9248082357690754</v>
+        <v>0.8313398058252427</v>
       </c>
       <c r="E113" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114">
@@ -2594,13 +2594,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>11584</v>
+        <v>23034</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8550666128381106</v>
+        <v>0.7621359223300971</v>
       </c>
       <c r="E114" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
@@ -2613,13 +2613,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11272</v>
+        <v>22458</v>
       </c>
       <c r="D115" t="n">
-        <v>0.823576907549455</v>
+        <v>0.7397669902912621</v>
       </c>
       <c r="E115" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116">
@@ -2632,13 +2632,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>12926</v>
+        <v>28394</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9905127169963666</v>
+        <v>0.9702912621359223</v>
       </c>
       <c r="E116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4479</v>
+        <v>6866</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1379693177230521</v>
+        <v>0.134252427184466</v>
       </c>
       <c r="E117" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118">
@@ -2670,13 +2670,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9972</v>
+        <v>18461</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6923698021800565</v>
+        <v>0.5845436893203884</v>
       </c>
       <c r="E118" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>10483</v>
+        <v>17390</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7439442874444893</v>
+        <v>0.5429514563106796</v>
       </c>
       <c r="E119" t="n">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
@@ -2708,13 +2708,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>10370</v>
+        <v>20138</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7325393621316109</v>
+        <v>0.6496699029126214</v>
       </c>
       <c r="E120" t="n">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>12088</v>
+        <v>24440</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9059345983044005</v>
+        <v>0.8167378640776699</v>
       </c>
       <c r="E121" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122">
@@ -2746,13 +2746,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>11428</v>
+        <v>21421</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8393217601937828</v>
+        <v>0.699495145631068</v>
       </c>
       <c r="E122" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123">
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>11954</v>
+        <v>25447</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8924101735970933</v>
+        <v>0.8558446601941747</v>
       </c>
       <c r="E123" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>11253</v>
+        <v>21871</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8216592652402099</v>
+        <v>0.7169708737864078</v>
       </c>
       <c r="E124" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8621</v>
+        <v>16361</v>
       </c>
       <c r="D125" t="n">
-        <v>0.556015341138474</v>
+        <v>0.5029902912621359</v>
       </c>
       <c r="E125" t="n">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126">
@@ -2822,13 +2822,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11792</v>
+        <v>23651</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8760597496972143</v>
+        <v>0.7860970873786408</v>
       </c>
       <c r="E126" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127">
@@ -2841,13 +2841,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>12681</v>
+        <v>28577</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9657852240613646</v>
+        <v>0.9773980582524272</v>
       </c>
       <c r="E127" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -2860,13 +2860,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>9423</v>
+        <v>17725</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6369600322971336</v>
+        <v>0.5559611650485436</v>
       </c>
       <c r="E128" t="n">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129">
@@ -2879,13 +2879,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>11420</v>
+        <v>20480</v>
       </c>
       <c r="D129" t="n">
-        <v>0.838514331853048</v>
+        <v>0.6629514563106796</v>
       </c>
       <c r="E129" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130">
@@ -2898,13 +2898,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>12205</v>
+        <v>22552</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9177432377876463</v>
+        <v>0.7434174757281553</v>
       </c>
       <c r="E130" t="n">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131">
@@ -2917,13 +2917,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4473</v>
+        <v>8029</v>
       </c>
       <c r="D131" t="n">
-        <v>0.137363746467501</v>
+        <v>0.1794174757281553</v>
       </c>
       <c r="E131" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132">
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>12477</v>
+        <v>26688</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9451958013726282</v>
+        <v>0.9040388349514563</v>
       </c>
       <c r="E132" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>11828</v>
+        <v>24804</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8796931772305208</v>
+        <v>0.830873786407767</v>
       </c>
       <c r="E133" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>9997</v>
+        <v>19281</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6948930157448526</v>
+        <v>0.6163883495145631</v>
       </c>
       <c r="E134" t="n">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>11306</v>
+        <v>21932</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8270084779975777</v>
+        <v>0.7193398058252427</v>
       </c>
       <c r="E135" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>8701</v>
+        <v>14702</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5640896245458216</v>
+        <v>0.4385631067961165</v>
       </c>
       <c r="E136" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137">
@@ -3031,13 +3031,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>11080</v>
+        <v>20118</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8041986273718208</v>
+        <v>0.6488932038834951</v>
       </c>
       <c r="E137" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138">
@@ -3050,13 +3050,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>10955</v>
+        <v>22167</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7915825595478402</v>
+        <v>0.7284660194174757</v>
       </c>
       <c r="E138" t="n">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139">
@@ -3069,13 +3069,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>12139</v>
+        <v>25588</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9110819539765845</v>
+        <v>0.8613203883495145</v>
       </c>
       <c r="E139" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140">
@@ -3088,13 +3088,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>10079</v>
+        <v>19555</v>
       </c>
       <c r="D140" t="n">
-        <v>0.703169156237384</v>
+        <v>0.6270291262135922</v>
       </c>
       <c r="E140" t="n">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>11683</v>
+        <v>16378</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8650585385547033</v>
+        <v>0.5036504854368932</v>
       </c>
       <c r="E141" t="n">
-        <v>77</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142">
@@ -3126,10 +3126,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>12326</v>
+        <v>25200</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9299555914412596</v>
+        <v>0.846252427184466</v>
       </c>
       <c r="E142" t="n">
         <v>31</v>
@@ -3145,13 +3145,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>12149</v>
+        <v>24845</v>
       </c>
       <c r="D143" t="n">
-        <v>0.912091239402503</v>
+        <v>0.8324660194174758</v>
       </c>
       <c r="E143" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144">
@@ -3164,13 +3164,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>10966</v>
+        <v>20122</v>
       </c>
       <c r="D144" t="n">
-        <v>0.7926927735163504</v>
+        <v>0.6490485436893204</v>
       </c>
       <c r="E144" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145">
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>12001</v>
+        <v>21863</v>
       </c>
       <c r="D145" t="n">
-        <v>0.89715381509891</v>
+        <v>0.7166601941747572</v>
       </c>
       <c r="E145" t="n">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7329</v>
+        <v>11374</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4256156641098103</v>
+        <v>0.3093203883495146</v>
       </c>
       <c r="E146" t="n">
         <v>220</v>
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>12673</v>
+        <v>23715</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9649777957206298</v>
+        <v>0.7885825242718446</v>
       </c>
       <c r="E147" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>12079</v>
+        <v>23984</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9050262414210739</v>
+        <v>0.7990291262135922</v>
       </c>
       <c r="E148" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149">
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>10412</v>
+        <v>17945</v>
       </c>
       <c r="D149" t="n">
-        <v>0.7367783609204683</v>
+        <v>0.5645048543689321</v>
       </c>
       <c r="E149" t="n">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150">
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>7273</v>
+        <v>11302</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4199636657246669</v>
+        <v>0.3065242718446602</v>
       </c>
       <c r="E150" t="n">
         <v>221</v>
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>10356</v>
+        <v>19249</v>
       </c>
       <c r="D151" t="n">
-        <v>0.731126362535325</v>
+        <v>0.6151456310679612</v>
       </c>
       <c r="E151" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
@@ -3316,13 +3316,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>12357</v>
+        <v>27608</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9330843762616068</v>
+        <v>0.9397669902912621</v>
       </c>
       <c r="E152" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153">
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>11836</v>
+        <v>23801</v>
       </c>
       <c r="D153" t="n">
-        <v>0.8805006055712555</v>
+        <v>0.7919223300970873</v>
       </c>
       <c r="E153" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154">
@@ -3354,13 +3354,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>7143</v>
+        <v>12257</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4068429551877271</v>
+        <v>0.3436116504854369</v>
       </c>
       <c r="E154" t="n">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155">
@@ -3373,13 +3373,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>10192</v>
+        <v>17565</v>
       </c>
       <c r="D155" t="n">
-        <v>0.7145740815502624</v>
+        <v>0.549747572815534</v>
       </c>
       <c r="E155" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156">
@@ -3392,13 +3392,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9209</v>
+        <v>15649</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6153613241824788</v>
+        <v>0.4753398058252427</v>
       </c>
       <c r="E156" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157">
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>9474</v>
+        <v>15732</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6421073879693178</v>
+        <v>0.4785631067961165</v>
       </c>
       <c r="E157" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158">
@@ -3430,13 +3430,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>11355</v>
+        <v>20606</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8319539765845781</v>
+        <v>0.6678446601941748</v>
       </c>
       <c r="E158" t="n">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159">
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>12056</v>
+        <v>23895</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9027048849414614</v>
+        <v>0.7955728155339806</v>
       </c>
       <c r="E159" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160">
@@ -3468,13 +3468,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>11044</v>
+        <v>17157</v>
       </c>
       <c r="D160" t="n">
-        <v>0.8005651998385144</v>
+        <v>0.5339029126213592</v>
       </c>
       <c r="E160" t="n">
-        <v>114</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161">
@@ -3487,13 +3487,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>9196</v>
+        <v>17394</v>
       </c>
       <c r="D161" t="n">
-        <v>0.6140492531287848</v>
+        <v>0.5431067961165048</v>
       </c>
       <c r="E161" t="n">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162">
@@ -3506,13 +3506,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>12091</v>
+        <v>26079</v>
       </c>
       <c r="D162" t="n">
-        <v>0.906237383932176</v>
+        <v>0.8803883495145631</v>
       </c>
       <c r="E162" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -3525,13 +3525,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>11290</v>
+        <v>20687</v>
       </c>
       <c r="D163" t="n">
-        <v>0.8253936213161082</v>
+        <v>0.6709902912621359</v>
       </c>
       <c r="E163" t="n">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164">
@@ -3544,13 +3544,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>8327</v>
+        <v>14521</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5263423496164715</v>
+        <v>0.4315339805825243</v>
       </c>
       <c r="E164" t="n">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="165">
@@ -3563,13 +3563,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>8883</v>
+        <v>13091</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5824586192975374</v>
+        <v>0.376</v>
       </c>
       <c r="E165" t="n">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>6867</v>
+        <v>11136</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3789866774323778</v>
+        <v>0.3000776699029126</v>
       </c>
       <c r="E166" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>10603</v>
+        <v>20892</v>
       </c>
       <c r="D167" t="n">
-        <v>0.7560557125555107</v>
+        <v>0.6789514563106797</v>
       </c>
       <c r="E167" t="n">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168">
@@ -3620,13 +3620,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>9592</v>
+        <v>16108</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6540169559951554</v>
+        <v>0.4931650485436893</v>
       </c>
       <c r="E168" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169">
@@ -3639,13 +3639,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>12184</v>
+        <v>24772</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9156237383932176</v>
+        <v>0.829631067961165</v>
       </c>
       <c r="E169" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170">
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>11051</v>
+        <v>21371</v>
       </c>
       <c r="D170" t="n">
-        <v>0.8012716996366572</v>
+        <v>0.6975533980582524</v>
       </c>
       <c r="E170" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171">
@@ -3677,13 +3677,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>11059</v>
+        <v>23008</v>
       </c>
       <c r="D171" t="n">
-        <v>0.802079127977392</v>
+        <v>0.761126213592233</v>
       </c>
       <c r="E171" t="n">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="172">
@@ -3696,13 +3696,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>12432</v>
+        <v>25156</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9406540169559952</v>
+        <v>0.8445436893203884</v>
       </c>
       <c r="E172" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173">
@@ -3715,13 +3715,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>12969</v>
+        <v>29159</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9948526443278159</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -3734,13 +3734,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>9960</v>
+        <v>19081</v>
       </c>
       <c r="D174" t="n">
-        <v>0.6911586596689544</v>
+        <v>0.608621359223301</v>
       </c>
       <c r="E174" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175">
@@ -3753,13 +3753,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>8995</v>
+        <v>15180</v>
       </c>
       <c r="D175" t="n">
-        <v>0.593762616067824</v>
+        <v>0.457126213592233</v>
       </c>
       <c r="E175" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176">
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>11009</v>
+        <v>22716</v>
       </c>
       <c r="D176" t="n">
-        <v>0.7970327008477998</v>
+        <v>0.7497864077669902</v>
       </c>
       <c r="E176" t="n">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="177">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>10709</v>
+        <v>19443</v>
       </c>
       <c r="D177" t="n">
-        <v>0.7667541380702463</v>
+        <v>0.6226796116504855</v>
       </c>
       <c r="E177" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178">
@@ -3810,13 +3810,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>11351</v>
+        <v>19662</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8315502624142107</v>
+        <v>0.6311844660194175</v>
       </c>
       <c r="E178" t="n">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="179">
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>11946</v>
+        <v>23361</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8916027452563585</v>
+        <v>0.7748349514563106</v>
       </c>
       <c r="E179" t="n">
         <v>65</v>
@@ -3848,13 +3848,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3301</v>
+        <v>3820</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0190754945498587</v>
+        <v>0.01596116504854369</v>
       </c>
       <c r="E180" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181">
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>10938</v>
+        <v>20835</v>
       </c>
       <c r="D181" t="n">
-        <v>0.7898667743237787</v>
+        <v>0.6767378640776699</v>
       </c>
       <c r="E181" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="182">
@@ -3886,13 +3886,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>11649</v>
+        <v>22741</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8616269681065806</v>
+        <v>0.750757281553398</v>
       </c>
       <c r="E182" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="183">
@@ -3905,13 +3905,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>10929</v>
+        <v>19523</v>
       </c>
       <c r="D183" t="n">
-        <v>0.7889584174404521</v>
+        <v>0.6257864077669902</v>
       </c>
       <c r="E183" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="184">
@@ -3924,13 +3924,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>12610</v>
+        <v>24569</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9586192975373435</v>
+        <v>0.821747572815534</v>
       </c>
       <c r="E184" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185">
@@ -3943,13 +3943,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>9509</v>
+        <v>16036</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6456398869600323</v>
+        <v>0.490368932038835</v>
       </c>
       <c r="E185" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186">
@@ -3962,13 +3962,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>5487</v>
+        <v>7404</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2397052886556318</v>
+        <v>0.1551456310679612</v>
       </c>
       <c r="E186" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="187">
@@ -3981,13 +3981,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>12807</v>
+        <v>28910</v>
       </c>
       <c r="D187" t="n">
-        <v>0.978502220427937</v>
+        <v>0.9903300970873786</v>
       </c>
       <c r="E187" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>12231</v>
+        <v>25771</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9203673798950344</v>
+        <v>0.8684271844660194</v>
       </c>
       <c r="E188" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189">
@@ -4019,13 +4019,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>10554</v>
+        <v>19743</v>
       </c>
       <c r="D189" t="n">
-        <v>0.7511102139685103</v>
+        <v>0.6343300970873786</v>
       </c>
       <c r="E189" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="190">
@@ -4038,13 +4038,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>11951</v>
+        <v>25182</v>
       </c>
       <c r="D190" t="n">
-        <v>0.8921073879693178</v>
+        <v>0.8455533980582525</v>
       </c>
       <c r="E190" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191">
@@ -4057,13 +4057,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>12089</v>
+        <v>24032</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9060355268469923</v>
+        <v>0.8008932038834952</v>
       </c>
       <c r="E191" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="192">
@@ -4076,13 +4076,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>10314</v>
+        <v>18984</v>
       </c>
       <c r="D192" t="n">
-        <v>0.7268873637464675</v>
+        <v>0.6048543689320388</v>
       </c>
       <c r="E192" t="n">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>12390</v>
+        <v>24378</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9364150181671377</v>
+        <v>0.8143300970873787</v>
       </c>
       <c r="E193" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="194">
@@ -4114,13 +4114,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>10908</v>
+        <v>21645</v>
       </c>
       <c r="D194" t="n">
-        <v>0.7868389180460235</v>
+        <v>0.7081941747572815</v>
       </c>
       <c r="E194" t="n">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195">
@@ -4133,13 +4133,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>7706</v>
+        <v>10485</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4636657246669358</v>
+        <v>0.2747961165048544</v>
       </c>
       <c r="E195" t="n">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="196">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9633</v>
+        <v>14937</v>
       </c>
       <c r="D196" t="n">
-        <v>0.6581550262414211</v>
+        <v>0.4476893203883495</v>
       </c>
       <c r="E196" t="n">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197">
@@ -4171,13 +4171,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>11869</v>
+        <v>23129</v>
       </c>
       <c r="D197" t="n">
-        <v>0.8838312474767864</v>
+        <v>0.7658252427184467</v>
       </c>
       <c r="E197" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198">
@@ -4190,13 +4190,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>12291</v>
+        <v>22754</v>
       </c>
       <c r="D198" t="n">
-        <v>0.926423092450545</v>
+        <v>0.75126213592233</v>
       </c>
       <c r="E198" t="n">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="199">
@@ -4209,13 +4209,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>7707</v>
+        <v>12292</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4637666532095276</v>
+        <v>0.3449708737864078</v>
       </c>
       <c r="E199" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200">
@@ -4228,13 +4228,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>7066</v>
+        <v>10860</v>
       </c>
       <c r="D200" t="n">
-        <v>0.399071457408155</v>
+        <v>0.2893592233009709</v>
       </c>
       <c r="E200" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201">
@@ -4247,13 +4247,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>10952</v>
+        <v>20080</v>
       </c>
       <c r="D201" t="n">
-        <v>0.7912797739200645</v>
+        <v>0.6474174757281553</v>
       </c>
       <c r="E201" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="202">
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3112</v>
+        <v>3409</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4285,13 +4285,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>9044</v>
+        <v>14382</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5987081146548244</v>
+        <v>0.4261359223300971</v>
       </c>
       <c r="E203" t="n">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="204">
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>7555</v>
+        <v>12779</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4484255147355672</v>
+        <v>0.3638834951456311</v>
       </c>
       <c r="E204" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="205">
@@ -4323,13 +4323,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>8619</v>
+        <v>13974</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5558134840532902</v>
+        <v>0.4102912621359223</v>
       </c>
       <c r="E205" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>12840</v>
+        <v>26899</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9818328623334679</v>
+        <v>0.9122330097087379</v>
       </c>
       <c r="E206" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207">
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>11631</v>
+        <v>24674</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8598102543399273</v>
+        <v>0.8258252427184466</v>
       </c>
       <c r="E207" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208">
@@ -4380,10 +4380,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>12453</v>
+        <v>25855</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9427735163504239</v>
+        <v>0.8716893203883496</v>
       </c>
       <c r="E208" t="n">
         <v>20</v>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>9403</v>
+        <v>16867</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6349414614452967</v>
+        <v>0.5226407766990291</v>
       </c>
       <c r="E209" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210">
@@ -4418,13 +4418,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>10889</v>
+        <v>21075</v>
       </c>
       <c r="D210" t="n">
-        <v>0.7849212757367784</v>
+        <v>0.6860582524271844</v>
       </c>
       <c r="E210" t="n">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="211">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>9658</v>
+        <v>18696</v>
       </c>
       <c r="D211" t="n">
-        <v>0.6606782398062172</v>
+        <v>0.5936699029126213</v>
       </c>
       <c r="E211" t="n">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="212">
@@ -4456,13 +4456,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>12306</v>
+        <v>26530</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9279370205894227</v>
+        <v>0.8979029126213592</v>
       </c>
       <c r="E212" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213">
@@ -4475,13 +4475,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4647</v>
+        <v>7079</v>
       </c>
       <c r="D213" t="n">
-        <v>0.154925312878482</v>
+        <v>0.1425242718446602</v>
       </c>
       <c r="E213" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="214">
@@ -4494,13 +4494,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>12087</v>
+        <v>23206</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9058336697618087</v>
+        <v>0.7688155339805826</v>
       </c>
       <c r="E214" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="215">
@@ -4513,13 +4513,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>7406</v>
+        <v>12163</v>
       </c>
       <c r="D215" t="n">
-        <v>0.4333871618893823</v>
+        <v>0.3399611650485437</v>
       </c>
       <c r="E215" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216">
@@ -4532,10 +4532,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>5893</v>
+        <v>9035</v>
       </c>
       <c r="D216" t="n">
-        <v>0.2806822769479209</v>
+        <v>0.2184854368932039</v>
       </c>
       <c r="E216" t="n">
         <v>233</v>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>12070</v>
+        <v>25951</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9041178845377473</v>
+        <v>0.8754174757281553</v>
       </c>
       <c r="E217" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218">
@@ -4570,13 +4570,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>12354</v>
+        <v>25633</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9327815906338313</v>
+        <v>0.8630679611650486</v>
       </c>
       <c r="E218" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219">
@@ -4589,13 +4589,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>11612</v>
+        <v>20913</v>
       </c>
       <c r="D219" t="n">
-        <v>0.8578926120306822</v>
+        <v>0.6797669902912621</v>
       </c>
       <c r="E219" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220">
@@ -4608,13 +4608,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>7997</v>
+        <v>14982</v>
       </c>
       <c r="D220" t="n">
-        <v>0.4930359305611627</v>
+        <v>0.4494368932038835</v>
       </c>
       <c r="E220" t="n">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="221">
@@ -4627,13 +4627,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>11564</v>
+        <v>21642</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8530480419862737</v>
+        <v>0.7080776699029127</v>
       </c>
       <c r="E221" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="222">
@@ -4646,13 +4646,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>10948</v>
+        <v>18168</v>
       </c>
       <c r="D222" t="n">
-        <v>0.7908760597496972</v>
+        <v>0.5731650485436893</v>
       </c>
       <c r="E222" t="n">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="223">
@@ -4665,13 +4665,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>10716</v>
+        <v>17609</v>
       </c>
       <c r="D223" t="n">
-        <v>0.7674606378683891</v>
+        <v>0.5514563106796116</v>
       </c>
       <c r="E223" t="n">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="224">
@@ -4684,13 +4684,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6358</v>
+        <v>11435</v>
       </c>
       <c r="D224" t="n">
-        <v>0.3276140492531288</v>
+        <v>0.3116893203883495</v>
       </c>
       <c r="E224" t="n">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225">
@@ -4703,13 +4703,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>9271</v>
+        <v>16621</v>
       </c>
       <c r="D225" t="n">
-        <v>0.6216188938231731</v>
+        <v>0.5130873786407767</v>
       </c>
       <c r="E225" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226">
@@ -4722,13 +4722,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>11516</v>
+        <v>22568</v>
       </c>
       <c r="D226" t="n">
-        <v>0.8482034719418652</v>
+        <v>0.7440388349514563</v>
       </c>
       <c r="E226" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="227">
@@ -4741,13 +4741,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>7355</v>
+        <v>11809</v>
       </c>
       <c r="D227" t="n">
-        <v>0.4282398062171982</v>
+        <v>0.3262135922330097</v>
       </c>
       <c r="E227" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228">
@@ -4760,10 +4760,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3678</v>
+        <v>6037</v>
       </c>
       <c r="D228" t="n">
-        <v>0.05712555510698426</v>
+        <v>0.1020582524271845</v>
       </c>
       <c r="E228" t="n">
         <v>241</v>
@@ -4779,13 +4779,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>11536</v>
+        <v>24384</v>
       </c>
       <c r="D229" t="n">
-        <v>0.8502220427937021</v>
+        <v>0.8145631067961165</v>
       </c>
       <c r="E229" t="n">
-        <v>90</v>
+        <v>47</v>
       </c>
     </row>
     <row r="230">
@@ -4798,13 +4798,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>12037</v>
+        <v>22953</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9007872426322164</v>
+        <v>0.7589902912621359</v>
       </c>
       <c r="E230" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231">
@@ -4817,13 +4817,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>10274</v>
+        <v>19692</v>
       </c>
       <c r="D231" t="n">
-        <v>0.7228502220427937</v>
+        <v>0.6323495145631068</v>
       </c>
       <c r="E231" t="n">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="232">
@@ -4836,13 +4836,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3217</v>
+        <v>5169</v>
       </c>
       <c r="D232" t="n">
-        <v>0.01059749697214372</v>
+        <v>0.0683495145631068</v>
       </c>
       <c r="E232" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233">
@@ -4855,13 +4855,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>6519</v>
+        <v>10909</v>
       </c>
       <c r="D233" t="n">
-        <v>0.3438635446104158</v>
+        <v>0.2912621359223301</v>
       </c>
       <c r="E233" t="n">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234">
@@ -4874,13 +4874,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>7067</v>
+        <v>10665</v>
       </c>
       <c r="D234" t="n">
-        <v>0.3991723859507469</v>
+        <v>0.2817864077669903</v>
       </c>
       <c r="E234" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="235">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>12132</v>
+        <v>23355</v>
       </c>
       <c r="D235" t="n">
-        <v>0.9103754541784417</v>
+        <v>0.7746019417475728</v>
       </c>
       <c r="E235" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="236">
@@ -4912,13 +4912,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>11987</v>
+        <v>23042</v>
       </c>
       <c r="D236" t="n">
-        <v>0.8957408155026242</v>
+        <v>0.7624466019417476</v>
       </c>
       <c r="E236" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237">
@@ -4931,10 +4931,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>6102</v>
+        <v>9101</v>
       </c>
       <c r="D237" t="n">
-        <v>0.3017763423496165</v>
+        <v>0.2210485436893204</v>
       </c>
       <c r="E237" t="n">
         <v>232</v>
@@ -4950,13 +4950,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>8311</v>
+        <v>13040</v>
       </c>
       <c r="D238" t="n">
-        <v>0.524727492935002</v>
+        <v>0.3740194174757281</v>
       </c>
       <c r="E238" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="239">
@@ -4969,13 +4969,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>7344</v>
+        <v>10857</v>
       </c>
       <c r="D239" t="n">
-        <v>0.4271295922486879</v>
+        <v>0.2892427184466019</v>
       </c>
       <c r="E239" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="240">
@@ -4988,13 +4988,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>8674</v>
+        <v>12875</v>
       </c>
       <c r="D240" t="n">
-        <v>0.5613645538958417</v>
+        <v>0.3676116504854369</v>
       </c>
       <c r="E240" t="n">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="241">
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>11388</v>
+        <v>20704</v>
       </c>
       <c r="D241" t="n">
-        <v>0.835284618490109</v>
+        <v>0.6716504854368932</v>
       </c>
       <c r="E241" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="242">
@@ -5026,13 +5026,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>10917</v>
+        <v>20790</v>
       </c>
       <c r="D242" t="n">
-        <v>0.78774727492935</v>
+        <v>0.6749902912621359</v>
       </c>
       <c r="E242" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="243">
@@ -5045,13 +5045,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>12142</v>
+        <v>25730</v>
       </c>
       <c r="D243" t="n">
-        <v>0.9113847396043601</v>
+        <v>0.8668349514563107</v>
       </c>
       <c r="E243" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244">
@@ -5064,13 +5064,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>4925</v>
+        <v>8387</v>
       </c>
       <c r="D244" t="n">
-        <v>0.1829834477190149</v>
+        <v>0.1933203883495146</v>
       </c>
       <c r="E244" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245">
@@ -5083,10 +5083,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>11990</v>
+        <v>23791</v>
       </c>
       <c r="D245" t="n">
-        <v>0.8960436011303997</v>
+        <v>0.7915339805825242</v>
       </c>
       <c r="E245" t="n">
         <v>59</v>
